--- a/tablasPHP.xlsx
+++ b/tablasPHP.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>3.1.1.Razón de mortalidad materna</t>
+  </si>
+  <si>
+    <t>Entidad Federativa</t>
   </si>
   <si>
     <t>Estados Unidos Mexicanos</t>
@@ -465,6 +468,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" t="s">
@@ -497,6 +503,9 @@
       <c r="AA1"/>
     </row>
     <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>2015</v>
       </c>
@@ -578,7 +587,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>34.6</v>
@@ -661,7 +670,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>25.8</v>
@@ -744,38 +753,90 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>28.9</v>
+      </c>
+      <c r="D5">
+        <v>42.3</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>37.1</v>
+      </c>
+      <c r="G5">
+        <v>42.6</v>
+      </c>
+      <c r="H5">
+        <v>52.7</v>
+      </c>
+      <c r="I5">
+        <v>42.4</v>
+      </c>
+      <c r="J5">
+        <v>39.3</v>
+      </c>
+      <c r="K5">
+        <v>41.3</v>
+      </c>
+      <c r="L5">
+        <v>50.6</v>
+      </c>
+      <c r="M5">
+        <v>60.3</v>
+      </c>
+      <c r="N5">
+        <v>40.7</v>
+      </c>
+      <c r="O5">
+        <v>31.8</v>
+      </c>
+      <c r="P5">
+        <v>43.2</v>
+      </c>
+      <c r="Q5">
+        <v>56.5</v>
+      </c>
+      <c r="R5">
+        <v>43.4</v>
+      </c>
+      <c r="S5">
+        <v>49</v>
+      </c>
+      <c r="T5">
+        <v>32.1</v>
+      </c>
+      <c r="U5">
+        <v>30.4</v>
+      </c>
+      <c r="V5">
+        <v>25</v>
+      </c>
+      <c r="W5">
+        <v>23.6</v>
+      </c>
+      <c r="X5">
+        <v>32.4</v>
+      </c>
+      <c r="Y5">
+        <v>25</v>
+      </c>
+      <c r="Z5">
+        <v>59.9</v>
+      </c>
+      <c r="AA5">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>24.3</v>
@@ -858,7 +919,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>46.5</v>
@@ -941,7 +1002,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>28.3</v>
@@ -1024,7 +1085,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>22.3</v>
@@ -1107,7 +1168,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>68.5</v>
@@ -1190,7 +1251,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>43.1</v>
@@ -1273,7 +1334,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>44.3</v>
@@ -1356,7 +1417,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>31.1</v>
@@ -1439,7 +1500,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>31.2</v>
@@ -1522,7 +1583,7 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>49.5</v>
@@ -1605,7 +1666,7 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>32.3</v>
@@ -1688,7 +1749,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>24.7</v>
@@ -1771,7 +1832,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>30.9</v>
@@ -1854,7 +1915,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>34.3</v>
@@ -1937,7 +1998,7 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>36.6</v>
@@ -2020,7 +2081,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>66.9</v>
@@ -2103,7 +2164,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>23.5</v>
@@ -2186,7 +2247,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>48.6</v>
@@ -2269,7 +2330,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>32.3</v>
@@ -2352,7 +2413,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>14.9</v>
@@ -2435,7 +2496,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>20.7</v>
@@ -2518,7 +2579,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>30.1</v>
@@ -2601,7 +2662,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>22.1</v>
@@ -2684,7 +2745,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>32.2</v>
@@ -2767,7 +2828,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>41.7</v>
@@ -2850,7 +2911,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>32</v>
@@ -2933,7 +2994,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>20.1</v>
@@ -3016,7 +3077,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>29.9</v>
@@ -3099,7 +3160,7 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>32.6</v>
@@ -3182,7 +3243,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>32.6</v>
@@ -3265,7 +3326,7 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
